--- a/Design/config/PlayerConfig.xlsx
+++ b/Design/config/PlayerConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -327,22 +327,6 @@
   </si>
   <si>
     <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendFactor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友因子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -994,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,11 +992,11 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="30.375" customWidth="1"/>
+    <col min="8" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,13 +1010,13 @@
         <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>65</v>
@@ -1071,28 +1055,25 @@
         <v>69</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1106,13 +1087,13 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>31</v>
@@ -1145,34 +1126,31 @@
         <v>30</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1186,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>17</v>
@@ -1231,7 +1209,7 @@
         <v>71</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>71</v>
@@ -1243,16 +1221,13 @@
         <v>71</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1266,13 +1241,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>62</v>
@@ -1311,28 +1286,25 @@
         <v>72</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="U4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1366,17 +1338,16 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
@@ -1421,40 +1392,37 @@
         <v>0.5</v>
       </c>
       <c r="T6" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="V6" s="3">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
       <c r="W6" s="3">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="X6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="Y6" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB6" s="3"/>
+      <c r="Y6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>18</v>
@@ -1494,39 +1462,36 @@
         <v>0.5</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="3">
         <v>0.5</v>
       </c>
       <c r="V7" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W7" s="3">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="X7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="Y7" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>90</v>
+      <c r="Y7" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>18</v>
@@ -1566,28 +1531,25 @@
         <v>0.5</v>
       </c>
       <c r="T8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="3">
         <v>1</v>
       </c>
-      <c r="U8" s="3">
-        <v>0.5</v>
-      </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W8" s="3">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="X8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="Y8" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z8" s="9" t="s">
-        <v>136</v>
+      <c r="Y8" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1640,39 +1602,36 @@
         <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U9" s="3">
         <v>0.5</v>
       </c>
       <c r="V9" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="W9" s="3">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="X9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z9" s="9" t="s">
-        <v>139</v>
+      <c r="Y9" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>18</v>
@@ -1713,28 +1672,25 @@
         <v>0.5</v>
       </c>
       <c r="T10" s="3">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="U10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W10" s="3">
         <v>0.3</v>
       </c>
-      <c r="V10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.8</v>
-      </c>
       <c r="X10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="Y10" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z10" s="9" t="s">
-        <v>91</v>
+      <c r="Y10" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1785,28 +1741,25 @@
         <v>0.5</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="3">
         <v>0.5</v>
       </c>
       <c r="V11" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="W11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="3">
         <v>0.85</v>
       </c>
-      <c r="X11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>90</v>
+      <c r="Y11" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1814,7 +1767,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1857,28 +1810,25 @@
         <v>3</v>
       </c>
       <c r="T12" s="3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W12" s="3">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="X12" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>92</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>100</v>
       </c>
@@ -1893,10 +1843,10 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
@@ -1939,40 +1889,37 @@
         <v>0.5</v>
       </c>
       <c r="V13" s="3">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="W13" s="3">
-        <v>0.84</v>
+        <v>0.23</v>
       </c>
       <c r="X13" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="Y13" s="3">
         <v>0.9</v>
       </c>
-      <c r="Z13" s="9" t="s">
-        <v>93</v>
+      <c r="Y13" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
@@ -2009,46 +1956,43 @@
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U14" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="V14" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="W14" s="3">
-        <v>0.95</v>
+        <v>0.13</v>
       </c>
       <c r="X14" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="Y14" s="3">
         <v>0.7</v>
       </c>
-      <c r="Z14" s="9" t="s">
-        <v>94</v>
+      <c r="Y14" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
@@ -2085,46 +2029,43 @@
         <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="U15" s="3">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="V15" s="3">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="W15" s="3">
-        <v>0.95</v>
+        <v>0.12</v>
       </c>
       <c r="X15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="Y15" s="3">
         <v>0.85</v>
       </c>
-      <c r="Z15" s="9" t="s">
-        <v>95</v>
+      <c r="Y15" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
@@ -2167,40 +2108,37 @@
         <v>0.5</v>
       </c>
       <c r="V16" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="W16" s="3">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="X16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Y16" s="3">
         <v>0.9</v>
       </c>
-      <c r="Z16" s="9" t="s">
-        <v>90</v>
+      <c r="Y16" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
@@ -2243,19 +2181,16 @@
         <v>0.5</v>
       </c>
       <c r="V17" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="W17" s="3">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="X17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Y17" s="3">
         <v>0.9</v>
       </c>
-      <c r="Z17" s="9" t="s">
-        <v>96</v>
+      <c r="Y17" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Design/config/PlayerConfig.xlsx
+++ b/Design/config/PlayerConfig.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$P$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,12 +129,6 @@
   </si>
   <si>
     <t>Findmasterrate</t>
-  </si>
-  <si>
-    <t>Banstrongcard</t>
-  </si>
-  <si>
-    <t>Banweakcard</t>
   </si>
   <si>
     <t>Cardsneed</t>
@@ -238,23 +228,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ban弱卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ban强卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -978,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,11 +966,11 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="24" width="6" customWidth="1"/>
-    <col min="25" max="25" width="30.375" customWidth="1"/>
+    <col min="8" max="22" width="6" customWidth="1"/>
+    <col min="23" max="23" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,153 +978,141 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="M1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>32</v>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1158,76 +1120,70 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>95</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1235,96 +1191,90 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>61</v>
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -1336,865 +1286,824 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="9"/>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>16</v>
+      </c>
       <c r="J6" s="3">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
       </c>
       <c r="N6" s="3">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="T6" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="U6" s="3">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="V6" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="X6" s="3">
         <v>0.7</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA6" s="3"/>
+      <c r="W6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="3">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
       <c r="J7" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K7" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L7" s="3">
+        <v>7</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="3">
         <v>0.3</v>
       </c>
-      <c r="M7" s="3">
-        <v>3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>7</v>
-      </c>
-      <c r="O7" s="3">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0.5</v>
-      </c>
       <c r="V7" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="X7" s="3">
         <v>0.7</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>86</v>
+      <c r="W7" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30</v>
+      </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="M8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="O8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>132</v>
+      <c r="W8" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9"/>
+      <c r="H9" s="3">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30</v>
+      </c>
       <c r="J9" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3">
-        <v>0.3</v>
+        <v>8</v>
       </c>
       <c r="M9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="3">
-        <v>8</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="O9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
-        <v>0.27999999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T9" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="U9" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V9" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="3">
         <v>0.7</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>135</v>
+      <c r="W9" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>18</v>
+      <c r="H10" s="3">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3">
+        <v>30</v>
       </c>
       <c r="J10" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L10" s="3">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3">
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="3">
         <v>0.3</v>
       </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3">
-        <v>6</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0.5</v>
       </c>
       <c r="T10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U10" s="3">
         <v>0.3</v>
       </c>
-      <c r="U10" s="3">
-        <v>0.5</v>
-      </c>
       <c r="V10" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="X10" s="3">
         <v>0.7</v>
       </c>
-      <c r="Y10" s="9" t="s">
-        <v>87</v>
+      <c r="W10" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="3">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3">
+        <v>23</v>
+      </c>
       <c r="J11" s="3">
-        <v>17</v>
+        <v>0.3</v>
       </c>
       <c r="K11" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L11" s="3">
-        <v>0.3</v>
+        <v>8</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="3">
-        <v>8</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="O11" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P11" s="3">
-        <v>0.27999999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="3">
         <v>0.5</v>
       </c>
       <c r="T11" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="U11" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V11" s="3">
         <v>0.85</v>
       </c>
-      <c r="W11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>86</v>
+      <c r="W11" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="3">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3">
+        <v>25</v>
+      </c>
       <c r="J12" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K12" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L12" s="3">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
-        <v>9</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U12" s="3">
         <v>0.35</v>
       </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
       <c r="V12" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>88</v>
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="H13" s="3">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3">
+        <v>30</v>
       </c>
       <c r="J13" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K13" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L13" s="3">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="M13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="3">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S13" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="T13" s="3">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="U13" s="3">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="V13" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="X13" s="3">
         <v>0.9</v>
       </c>
-      <c r="Y13" s="9" t="s">
-        <v>89</v>
+      <c r="W13" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>18</v>
+        <v>115</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3">
+        <v>30</v>
       </c>
       <c r="J14" s="3">
-        <v>22</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L14" s="3">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N14" s="3">
-        <v>8</v>
+        <v>0.52499999999999991</v>
       </c>
       <c r="O14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>0.52499999999999991</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T14" s="3">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="U14" s="3">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="V14" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="X14" s="3">
         <v>0.7</v>
       </c>
-      <c r="Y14" s="9" t="s">
-        <v>90</v>
+      <c r="W14" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3">
+        <v>30</v>
       </c>
       <c r="J15" s="3">
-        <v>19</v>
+        <v>0.2</v>
       </c>
       <c r="K15" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="M15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N15" s="3">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="O15" s="3">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="P15" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S15" s="3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="T15" s="3">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="U15" s="3">
-        <v>1.3</v>
+        <v>0.12</v>
       </c>
       <c r="V15" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="X15" s="3">
         <v>0.85</v>
       </c>
-      <c r="Y15" s="9" t="s">
-        <v>91</v>
+      <c r="W15" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="H16" s="3">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3">
+        <v>30</v>
       </c>
       <c r="J16" s="3">
-        <v>23</v>
+        <v>0.2</v>
       </c>
       <c r="K16" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L16" s="3">
+        <v>8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="U16" s="3">
         <v>0.2</v>
       </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3">
-        <v>8</v>
-      </c>
-      <c r="O16" s="3">
-        <v>7</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="R16" s="3">
-        <v>3</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.5</v>
-      </c>
       <c r="V16" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="X16" s="3">
         <v>0.9</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>86</v>
+      <c r="W16" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>18</v>
+        <v>117</v>
+      </c>
+      <c r="H17" s="3">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3">
+        <v>30</v>
       </c>
       <c r="J17" s="3">
-        <v>19</v>
+        <v>0.3</v>
       </c>
       <c r="K17" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L17" s="3">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="M17" s="3">
+        <v>6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="3">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
-        <v>7</v>
-      </c>
-      <c r="O17" s="3">
-        <v>6</v>
-      </c>
       <c r="P17" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S17" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="T17" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="U17" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="V17" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="X17" s="3">
         <v>0.9</v>
       </c>
-      <c r="Y17" s="9" t="s">
-        <v>92</v>
+      <c r="W17" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R6">
+  <autoFilter ref="A4:P6">
     <sortState ref="A5:R15">
       <sortCondition ref="A4:A6"/>
     </sortState>

--- a/Design/config/PlayerConfig.xlsx
+++ b/Design/config/PlayerConfig.xlsx
@@ -308,38 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"def","2","inte","1","shoot","1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk","1","def","1","inte","1","shoot","1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"inte","3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shoot","2","def","2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk","1","def","1","inte","1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shoot","1","help","2","def","1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"inte","1","help","1","def","2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"atk","1","def","1","inte","2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PickFood</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -496,10 +464,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"def","1","help","1","inte","3"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerPic/aisha</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -508,12 +472,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"atk","2","shoot","1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>艾沙</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def|2|inte|1|shoot|1</t>
+  </si>
+  <si>
+    <t>atk|1|def|1|inte|1|shoot|1</t>
+  </si>
+  <si>
+    <t>def|1|help|1|inte|3</t>
+  </si>
+  <si>
+    <t>atk|2|shoot|1</t>
+  </si>
+  <si>
+    <t>inte|3</t>
+  </si>
+  <si>
+    <t>shoot|2|def|2</t>
+  </si>
+  <si>
+    <t>atk|1|def|1|inte|1</t>
+  </si>
+  <si>
+    <t>shoot|1|help|2|def|1</t>
+  </si>
+  <si>
+    <t>inte|1|help|1|def|2</t>
+  </si>
+  <si>
+    <t>atk|1|def|1|inte|2</t>
   </si>
 </sst>
 </file>
@@ -955,7 +945,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="W6" sqref="W6:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,13 +974,13 @@
         <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>47</v>
@@ -1026,7 +1016,7 @@
         <v>66</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>69</v>
@@ -1055,13 +1045,13 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>23</v>
@@ -1097,7 +1087,7 @@
         <v>67</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>68</v>
@@ -1126,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>12</v>
@@ -1197,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>16</v>
@@ -1292,10 +1282,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -1351,7 +1341,7 @@
         <v>0.7</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="3"/>
     </row>
@@ -1360,13 +1350,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
@@ -1419,7 +1409,7 @@
         <v>0.7</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1427,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>17</v>
@@ -1486,7 +1476,7 @@
         <v>0.7</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1553,7 +1543,7 @@
         <v>0.7</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1561,13 +1551,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>17</v>
@@ -1620,7 +1610,7 @@
         <v>0.7</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1687,7 +1677,7 @@
         <v>0.85</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1698,7 +1688,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -1754,7 +1744,7 @@
         <v>0.5</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1772,10 +1762,10 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H13" s="3">
         <v>19</v>
@@ -1823,7 +1813,7 @@
         <v>0.9</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1831,20 +1821,20 @@
         <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3">
         <v>22</v>
@@ -1892,7 +1882,7 @@
         <v>0.7</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -1900,20 +1890,20 @@
         <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H15" s="3">
         <v>19</v>
@@ -1961,7 +1951,7 @@
         <v>0.85</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -1969,20 +1959,20 @@
         <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3">
         <v>23</v>
@@ -2030,7 +2020,7 @@
         <v>0.9</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2038,20 +2028,20 @@
         <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H17" s="3">
         <v>19</v>
@@ -2099,7 +2089,7 @@
         <v>0.9</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
